--- a/meetings/gPROP Action Item Register.xlsx
+++ b/meetings/gPROP Action Item Register.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Suz\DSM\DSM Team\projects\properties\meetings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Suz\DSM\DSM Team\projects\subteams\properties\dsm-properties-subteam\trunk\meetings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Action Item</t>
   </si>
@@ -102,16 +102,34 @@
     <t>follow up with Bob Dobos and propose the CO River basin dataset for testing; set up meeting</t>
   </si>
   <si>
-    <t>sent email to Bob on 6/13/18; ask Skye and Zamir to follow up in person</t>
-  </si>
-  <si>
     <t>send interpretations info to group; arrange small subset to focus on interpretations and meet with interp staff</t>
   </si>
   <si>
-    <t>suzann</t>
-  </si>
-  <si>
     <t>sent email to group on 6/19/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sent email to Bob on 6/13/18; ask Skye and Zamir to follow up in person; Travis, Chad, Skye, Suzann will prepare dataset and initiate conversation; email from Bob 7/26/18  </t>
+  </si>
+  <si>
+    <t>explore options for stratification testing (MLRAs, ecoregions, etc)</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>options will be discussed at 8/7/18 meeting</t>
+  </si>
+  <si>
+    <t>test MLRA stratification on upper CO River basin soil depth prediction project</t>
+  </si>
+  <si>
+    <t>Colby</t>
+  </si>
+  <si>
+    <t>share 30m DEM developed by Rob with group (find file sharing solution)</t>
+  </si>
+  <si>
+    <t>Suzann/Rob</t>
   </si>
 </sst>
 </file>
@@ -271,6 +289,34 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
@@ -302,23 +348,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -373,12 +402,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G109" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" name="Action Item" dataDxfId="6"/>
-    <tableColumn id="2" name="Assigned To" dataDxfId="5"/>
-    <tableColumn id="3" name="Status" dataDxfId="4"/>
-    <tableColumn id="4" name="Date Created" dataDxfId="3"/>
-    <tableColumn id="6" name="Due Date" dataDxfId="2"/>
-    <tableColumn id="5" name="Completion Date" dataDxfId="0"/>
-    <tableColumn id="7" name="Notes" dataDxfId="1"/>
+    <tableColumn id="2" name="Assigned To" dataDxfId="2"/>
+    <tableColumn id="3" name="Status" dataDxfId="0"/>
+    <tableColumn id="4" name="Date Created" dataDxfId="1"/>
+    <tableColumn id="6" name="Due Date" dataDxfId="5"/>
+    <tableColumn id="5" name="Completion Date" dataDxfId="4"/>
+    <tableColumn id="7" name="Notes" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -650,17 +679,17 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="54.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64.140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
@@ -675,7 +704,7 @@
       <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -698,8 +727,8 @@
       <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="D2" s="9">
         <v>43266</v>
@@ -717,25 +746,25 @@
       <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="D3" s="9">
         <v>43266</v>
       </c>
       <c r="E3" s="9"/>
       <c r="G3" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="9">
@@ -744,30 +773,60 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9">
+        <v>43307</v>
+      </c>
+      <c r="E5" s="9">
+        <v>43319</v>
+      </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="A6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9">
+        <v>43307</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="9"/>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9">
+        <v>43307</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
       <c r="G7" s="11"/>
@@ -775,6 +834,7 @@
     <row r="8" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
@@ -783,6 +843,7 @@
     <row r="9" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
@@ -791,6 +852,7 @@
     <row r="10" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -799,6 +861,7 @@
     <row r="11" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
       <c r="F11" s="8"/>
@@ -807,7 +870,7 @@
     <row r="12" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="8"/>
@@ -816,6 +879,7 @@
     <row r="13" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -824,6 +888,7 @@
     <row r="14" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -832,6 +897,7 @@
     <row r="15" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="8"/>
@@ -840,6 +906,7 @@
     <row r="16" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="9"/>
       <c r="E16" s="13"/>
       <c r="F16" s="8"/>
@@ -848,6 +915,7 @@
     <row r="17" spans="1:7" s="6" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -856,6 +924,7 @@
     <row r="18" spans="1:7" s="6" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -864,6 +933,7 @@
     <row r="19" spans="1:7" s="6" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -872,6 +942,7 @@
     <row r="20" spans="1:7" s="6" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -880,6 +951,7 @@
     <row r="21" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="13"/>
       <c r="F21" s="8"/>
@@ -888,6 +960,7 @@
     <row r="22" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -896,6 +969,7 @@
     <row r="23" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -904,6 +978,7 @@
     <row r="24" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -912,6 +987,7 @@
     <row r="25" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
       <c r="F25" s="8"/>
@@ -920,6 +996,7 @@
     <row r="26" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="9"/>
       <c r="E26" s="13"/>
       <c r="F26" s="8"/>
@@ -928,6 +1005,7 @@
     <row r="27" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -936,6 +1014,7 @@
     <row r="28" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -944,6 +1023,7 @@
     <row r="29" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -952,6 +1032,7 @@
     <row r="30" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -960,6 +1041,7 @@
     <row r="31" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -968,6 +1050,7 @@
     <row r="32" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -976,6 +1059,7 @@
     <row r="33" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="9"/>
       <c r="E33" s="13"/>
       <c r="F33" s="8"/>
@@ -984,6 +1068,7 @@
     <row r="34" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="9"/>
       <c r="E34" s="13"/>
       <c r="F34" s="8"/>
@@ -992,6 +1077,7 @@
     <row r="35" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="13"/>
       <c r="F35" s="9"/>
@@ -1000,6 +1086,7 @@
     <row r="36" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="9"/>
       <c r="E36" s="13"/>
       <c r="F36" s="9"/>
@@ -1008,6 +1095,7 @@
     <row r="37" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="9"/>
       <c r="E37" s="13"/>
       <c r="F37" s="14"/>
@@ -1016,6 +1104,7 @@
     <row r="38" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="9"/>
       <c r="E38" s="13"/>
       <c r="F38" s="9"/>
@@ -1024,6 +1113,7 @@
     <row r="39" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="9"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -1032,6 +1122,7 @@
     <row r="40" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="9"/>
       <c r="E40" s="13"/>
       <c r="F40" s="10"/>
@@ -1040,6 +1131,7 @@
     <row r="41" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -1048,6 +1140,7 @@
     <row r="42" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -1056,6 +1149,7 @@
     <row r="43" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -1064,6 +1158,7 @@
     <row r="44" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -1072,6 +1167,7 @@
     <row r="45" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -1080,6 +1176,7 @@
     <row r="46" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -1088,6 +1185,7 @@
     <row r="47" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -1096,6 +1194,7 @@
     <row r="48" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -1104,6 +1203,7 @@
     <row r="49" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -1112,6 +1212,7 @@
     <row r="50" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -1120,6 +1221,7 @@
     <row r="51" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -1128,6 +1230,7 @@
     <row r="52" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -1136,6 +1239,7 @@
     <row r="53" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -1144,6 +1248,7 @@
     <row r="54" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -1152,6 +1257,7 @@
     <row r="55" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -1160,6 +1266,7 @@
     <row r="56" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -1168,6 +1275,7 @@
     <row r="57" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -1176,6 +1284,7 @@
     <row r="58" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -1184,6 +1293,7 @@
     <row r="59" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -1192,6 +1302,7 @@
     <row r="60" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -1200,6 +1311,7 @@
     <row r="61" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -1208,6 +1320,7 @@
     <row r="62" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -1216,6 +1329,7 @@
     <row r="63" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
@@ -1224,6 +1338,7 @@
     <row r="64" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -1232,6 +1347,7 @@
     <row r="65" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -1240,6 +1356,7 @@
     <row r="66" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -1248,6 +1365,7 @@
     <row r="67" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
@@ -1256,6 +1374,7 @@
     <row r="68" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -1264,6 +1383,7 @@
     <row r="69" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -1272,6 +1392,7 @@
     <row r="70" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
@@ -1280,6 +1401,7 @@
     <row r="71" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
@@ -1288,6 +1410,7 @@
     <row r="72" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
@@ -1296,6 +1419,7 @@
     <row r="73" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
@@ -1304,6 +1428,7 @@
     <row r="74" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -1312,6 +1437,7 @@
     <row r="75" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -1320,6 +1446,7 @@
     <row r="76" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
@@ -1328,6 +1455,7 @@
     <row r="77" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -1336,6 +1464,7 @@
     <row r="78" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
@@ -1467,6 +1596,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100643CF5598B7D214CBF8D3E08ADB56D10" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2ffbcb71bd77ad3481843c41de5ec3ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be49189b09f1ade3a025730c41919c31">
     <xsd:element name="properties">
@@ -1580,22 +1724,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB070C1C-6B64-416D-BA58-06146C6676CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83BA062B-90A2-4452-8624-577D714229F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4D1CEE3-B862-4D71-A43D-5F0C40BC5217}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1609,27 +1761,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83BA062B-90A2-4452-8624-577D714229F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB070C1C-6B64-416D-BA58-06146C6676CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/meetings/gPROP Action Item Register.xlsx
+++ b/meetings/gPROP Action Item Register.xlsx
@@ -108,9 +108,6 @@
     <t>sent email to group on 6/19/18</t>
   </si>
   <si>
-    <t xml:space="preserve">sent email to Bob on 6/13/18; ask Skye and Zamir to follow up in person; Travis, Chad, Skye, Suzann will prepare dataset and initiate conversation; email from Bob 7/26/18  </t>
-  </si>
-  <si>
     <t>explore options for stratification testing (MLRAs, ecoregions, etc)</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Suzann/Rob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sent email to Bob on 6/13/18; ask Skye and Zamir to follow up in person; Travis, Chad, Skye, Suzann will prepare dataset and initiate conversation; email from Bob 7/26/18; Travis contacted Bob 7/31/18; email to Hoover 8/6/18 </t>
   </si>
 </sst>
 </file>
@@ -275,6 +275,27 @@
   <dxfs count="9">
     <dxf>
       <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -314,27 +335,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -402,12 +402,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G109" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" name="Action Item" dataDxfId="6"/>
-    <tableColumn id="2" name="Assigned To" dataDxfId="2"/>
-    <tableColumn id="3" name="Status" dataDxfId="0"/>
-    <tableColumn id="4" name="Date Created" dataDxfId="1"/>
-    <tableColumn id="6" name="Due Date" dataDxfId="5"/>
-    <tableColumn id="5" name="Completion Date" dataDxfId="4"/>
-    <tableColumn id="7" name="Notes" dataDxfId="3"/>
+    <tableColumn id="2" name="Assigned To" dataDxfId="5"/>
+    <tableColumn id="3" name="Status" dataDxfId="4"/>
+    <tableColumn id="4" name="Date Created" dataDxfId="3"/>
+    <tableColumn id="6" name="Due Date" dataDxfId="2"/>
+    <tableColumn id="5" name="Completion Date" dataDxfId="1"/>
+    <tableColumn id="7" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -682,7 +682,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="54.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -754,7 +754,7 @@
       </c>
       <c r="E3" s="9"/>
       <c r="G3" s="11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -778,10 +778,10 @@
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
@@ -794,15 +794,15 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>19</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>19</v>
@@ -1602,15 +1602,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100643CF5598B7D214CBF8D3E08ADB56D10" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2ffbcb71bd77ad3481843c41de5ec3ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be49189b09f1ade3a025730c41919c31">
     <xsd:element name="properties">
@@ -1724,6 +1715,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB070C1C-6B64-416D-BA58-06146C6676CD}">
   <ds:schemaRefs>
@@ -1740,14 +1740,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83BA062B-90A2-4452-8624-577D714229F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4D1CEE3-B862-4D71-A43D-5F0C40BC5217}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1761,4 +1753,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83BA062B-90A2-4452-8624-577D714229F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/meetings/gPROP Action Item Register.xlsx
+++ b/meetings/gPROP Action Item Register.xlsx
@@ -114,9 +114,6 @@
     <t>group</t>
   </si>
   <si>
-    <t>options will be discussed at 8/7/18 meeting</t>
-  </si>
-  <si>
     <t>test MLRA stratification on upper CO River basin soil depth prediction project</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t xml:space="preserve">sent email to Bob on 6/13/18; ask Skye and Zamir to follow up in person; Travis, Chad, Skye, Suzann will prepare dataset and initiate conversation; email from Bob 7/26/18; Travis contacted Bob 7/31/18; email to Hoover 8/6/18 </t>
+  </si>
+  <si>
+    <t>options will be discussed at 8/7/18 meeting; doesn’t really matter; we can try several, but workflow will be most important</t>
   </si>
 </sst>
 </file>
@@ -682,7 +682,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="54.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -754,7 +754,7 @@
       </c>
       <c r="E3" s="9"/>
       <c r="G3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -792,17 +792,19 @@
       <c r="E5" s="9">
         <v>43319</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9">
+        <v>43319</v>
+      </c>
       <c r="G5" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>19</v>
@@ -816,10 +818,10 @@
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>19</v>
@@ -828,7 +830,9 @@
         <v>43307</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="9">
+        <v>43322</v>
+      </c>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1602,6 +1606,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100643CF5598B7D214CBF8D3E08ADB56D10" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2ffbcb71bd77ad3481843c41de5ec3ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be49189b09f1ade3a025730c41919c31">
     <xsd:element name="properties">
@@ -1715,15 +1728,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB070C1C-6B64-416D-BA58-06146C6676CD}">
   <ds:schemaRefs>
@@ -1740,6 +1744,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83BA062B-90A2-4452-8624-577D714229F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4D1CEE3-B862-4D71-A43D-5F0C40BC5217}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1753,12 +1765,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83BA062B-90A2-4452-8624-577D714229F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>